--- a/static/uploads/excel/RelatorioOffice.xlsx
+++ b/static/uploads/excel/RelatorioOffice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archlinux\Intranet\static\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7956A351-8BA7-4476-B85F-C679A8993987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405E5BF2-F79F-455A-AE29-A2F77DDFB8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC2E3059-5AAE-40B0-8B0C-44A8D1996707}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC2E3059-5AAE-40B0-8B0C-44A8D1996707}"/>
   </bookViews>
   <sheets>
     <sheet name="LICENCAS" sheetId="1" r:id="rId1"/>
@@ -1028,9 +1028,6 @@
     <t>qualyinfo@emiteli.com.br</t>
   </si>
   <si>
-    <t>365 Business Standard Power Pages vTrial for Makers</t>
-  </si>
-  <si>
     <t>Melissa dos Santos França</t>
   </si>
   <si>
@@ -1076,9 +1073,6 @@
     <t>TI - admin</t>
   </si>
   <si>
-    <t>365 Business PremiumPower Pages vTrial for Makers</t>
-  </si>
-  <si>
     <t>Trabalhe Conosco</t>
   </si>
   <si>
@@ -1103,7 +1097,13 @@
     <t>wellinton.horbach@emiteli.com.br</t>
   </si>
   <si>
-    <t>Dynamics 365 Intelligent Order Management vTrialPower BI ProMicrosoft 365 Business StandardPower Pages vTrial for Makers</t>
+    <t>Power BI Pro Microsoft 365 Business Standard</t>
+  </si>
+  <si>
+    <t>365 Business Premium</t>
+  </si>
+  <si>
+    <t>365 Business Standard Power</t>
   </si>
 </sst>
 </file>
@@ -2061,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F227300-D294-4404-B86B-9128BC38EFF7}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
@@ -3498,7 +3498,7 @@
         <v>187</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>188</v>
@@ -3763,7 +3763,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>15</v>
@@ -3772,7 +3772,7 @@
         <v>92</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3806,7 +3806,7 @@
         <v>231</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>232</v>
@@ -3821,14 +3821,14 @@
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>311</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3857,7 +3857,7 @@
         <v>320</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>311</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4089,7 +4089,7 @@
         <v>320</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>311</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4109,7 +4109,7 @@
         <v>320</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>311</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4127,14 +4127,14 @@
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>311</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4237,10 +4237,10 @@
         <v>279</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="9" t="s">
@@ -4271,14 +4271,14 @@
         <v>6</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>309</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4287,14 +4287,14 @@
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>309</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4345,16 +4345,16 @@
         <v>209</v>
       </c>
       <c r="C121" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="F121" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4388,7 +4388,7 @@
         <v>290</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>291</v>
